--- a/Experiment2/phy2181/data.xlsx
+++ b/Experiment2/phy2181/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\python\PhysicsExperiment\Experiment2\phy2181\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4A19D-7CF8-49D2-B3ED-6F96DF89EA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83398695-A099-4F79-B0F6-4FB835AE707C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12432" yWindow="636" windowWidth="17280" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="456" yWindow="324" windowWidth="17280" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -264,6 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -546,13 +547,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1167,21 +1168,20 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1189,17 +1189,16 @@
       <c r="A28" s="1">
         <v>60</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2">
+        <v>6.2E-2</v>
+      </c>
       <c r="C28" s="2">
-        <v>6.2E-2</v>
+        <v>-0.159</v>
       </c>
       <c r="D28" s="2">
-        <v>-0.159</v>
+        <v>0.115</v>
       </c>
       <c r="E28" s="2">
-        <v>0.115</v>
-      </c>
-      <c r="F28" s="2">
         <v>0.46</v>
       </c>
     </row>
